--- a/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
+++ b/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\netsuite\netsuit-dev\netsuit-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Netsuite Dev\netsuit-dev\netsuit-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F7822-770E-4640-AE8A-6B9BF55C8168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -109,12 +108,21 @@
   </si>
   <si>
     <t>Create Script Export Faktur PK (for coretax)</t>
+  </si>
+  <si>
+    <t>Create Script User Event Button Print Invoice</t>
+  </si>
+  <si>
+    <t>Create Script Client Script direct suitelet page</t>
+  </si>
+  <si>
+    <t>Create Script Suitelet Print Out Invoice PDF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,28 +434,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45889</v>
       </c>
@@ -529,7 +537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45890</v>
       </c>
@@ -567,7 +575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45891</v>
       </c>
@@ -605,7 +613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45892</v>
       </c>
@@ -643,7 +651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45892</v>
       </c>
@@ -681,7 +689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45894</v>
       </c>
@@ -719,7 +727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45894</v>
       </c>
@@ -757,7 +765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45894</v>
       </c>
@@ -795,91 +803,193 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>

--- a/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
+++ b/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>Create Script Suitelet Print Out Invoice PDF</t>
+  </si>
+  <si>
+    <t>Create Custom Record and saved search For Auto Generate Item Code</t>
+  </si>
+  <si>
+    <t>Create Script Clinet Script For Auto Generate Item Code</t>
+  </si>
+  <si>
+    <t>Create Script User Event For Auto Generate Item Code</t>
+  </si>
+  <si>
+    <t>Create Custom Record and saved search For Generate Transaction numbering</t>
+  </si>
+  <si>
+    <t>Create Script For Generate Transaction Numbering</t>
   </si>
 </sst>
 </file>
@@ -438,7 +453,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,78 +933,282 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>

--- a/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
+++ b/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Create Script For Generate Transaction Numbering</t>
+  </si>
+  <si>
+    <t>Enhanch Script Count and Set Amount After Charge Invoice</t>
+  </si>
+  <si>
+    <t>Meet Integration With STC</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,16 +1066,16 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -1081,15 +1087,15 @@
         <v>19</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="B17" s="1">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1104,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -1119,7 +1125,7 @@
         <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1142,10 +1148,10 @@
         <v>16</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -1157,20 +1163,122 @@
         <v>19</v>
       </c>
       <c r="M18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45901</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -1211,6 +1319,10 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
+++ b/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>Meet Integration With STC</t>
+  </si>
+  <si>
+    <t>PT. Rejeki Damai Abadi</t>
+  </si>
+  <si>
+    <t>Enhanch Script Amortization in Vendor Bill</t>
+  </si>
+  <si>
+    <t>Set Up, Create JSON and Documentation For Integration</t>
+  </si>
+  <si>
+    <t>Enhanch Script For Integration SO</t>
+  </si>
+  <si>
+    <t>Set Up and Deploy Scripts Tax</t>
+  </si>
+  <si>
+    <t>Deep Ocean</t>
+  </si>
+  <si>
+    <t>CV. Marina Sukses Abadi</t>
+  </si>
+  <si>
+    <t>Fixin Fixed Issue Integration Cash Refund</t>
   </si>
 </sst>
 </file>
@@ -456,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,61 +1268,231 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45901</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>45901</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
         <v>24</v>
       </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21">
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45901</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1323,6 +1517,10 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
+++ b/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Fixin Fixed Issue Integration Cash Refund</t>
+  </si>
+  <si>
+    <t>Create Script For Budget Approval</t>
+  </si>
+  <si>
+    <t>Create Script Schedule For Removing Temporary File</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="A29" sqref="A29:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,24 +1501,156 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1">
+        <v>45904</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1">
+        <v>45904</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A30" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>

--- a/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
+++ b/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -168,6 +168,48 @@
   </si>
   <si>
     <t>Create Script Schedule For Removing Temporary File</t>
+  </si>
+  <si>
+    <t>Enhanch Script Tax</t>
+  </si>
+  <si>
+    <t>Create Script Integration Cash Sale</t>
+  </si>
+  <si>
+    <t>Create Script Print Out PO</t>
+  </si>
+  <si>
+    <t>Enhanch Script Transaction Running Number</t>
+  </si>
+  <si>
+    <t>Delet All Script Record, Deployment, and File</t>
+  </si>
+  <si>
+    <t>Enhanc Script Print Out PO</t>
+  </si>
+  <si>
+    <t>Enhanc Script Auto Generate Invoice</t>
+  </si>
+  <si>
+    <t>PT. Infinisia Sumber Semesta</t>
+  </si>
+  <si>
+    <t>Checking Script Auto Set On Hand</t>
+  </si>
+  <si>
+    <t>Meet With Infinisia Team</t>
+  </si>
+  <si>
+    <t>Fixing Fixed Print Invoice Issue</t>
+  </si>
+  <si>
+    <t>Enhanch Pembobotan Script</t>
+  </si>
+  <si>
+    <t>Create Script Print Item Receipt</t>
+  </si>
+  <si>
+    <t>Deploy to Production Account - Pembobotan Script</t>
   </si>
 </sst>
 </file>
@@ -486,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:M30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,7 +1623,7 @@
         <v>45909</v>
       </c>
       <c r="B29" s="1">
-        <v>45904</v>
+        <v>45909</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1619,7 +1661,7 @@
         <v>45909</v>
       </c>
       <c r="B30" s="1">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1652,13 +1694,689 @@
         <v>46</v>
       </c>
     </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A32" s="1">
+        <v>45911</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45911</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45911</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45911</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45912</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45912</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45912</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45912</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45915</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
+++ b/timesheet_aug_sep_Maulal_Ardi_Atqo.xlsx
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
